--- a/nr-prepare-release-3.1.1/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
+++ b/nr-prepare-release-3.1.1/ig/StructureDefinition-pdsm-ext-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T08:58:01+00:00</t>
+    <t>2026-01-14T14:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
